--- a/biology/Zoologie/Cephalotes_cordiventris/Cephalotes_cordiventris.xlsx
+++ b/biology/Zoologie/Cephalotes_cordiventris/Cephalotes_cordiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes cordiventris est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes cordiventris est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique de l'isthme de Panama, depuis l'état mexicain de Veracruz jusqu'à la région de Cauca en Bolivie, en passant par le Costa Rica[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique de l'isthme de Panama, depuis l'état mexicain de Veracruz jusqu'à la région de Cauca en Bolivie, en passant par le Costa Rica.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste suisse Félix Santschi en 1931.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
